--- a/RawData/Pfeedsupplementprod.xlsx
+++ b/RawData/Pfeedsupplementprod.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malgren/Documents/Mines/N_P/NANI_NAPI/CSNAPNIv1/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E51FEE-FB5F-E54B-9434-CE98588F39A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44E2FBC-4839-A146-A992-88AA057131E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10640" yWindow="8660" windowWidth="26840" windowHeight="15940" xr2:uid="{B337FA75-AAC9-E84C-8A12-4A38C0F69304}"/>
+    <workbookView xWindow="-23900" yWindow="-22120" windowWidth="26840" windowHeight="15940" xr2:uid="{B337FA75-AAC9-E84C-8A12-4A38C0F69304}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
-  <si>
-    <t>US P fertilizer use</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
   <si>
     <t>US P mining</t>
   </si>
@@ -46,18 +44,6 @@
     <t>US P imports</t>
   </si>
   <si>
-    <t>phosphoric acid prod</t>
-  </si>
-  <si>
-    <t>phosphoric acid exp</t>
-  </si>
-  <si>
-    <t>US P fertilizer exports</t>
-  </si>
-  <si>
-    <t>US P fertilizer imports</t>
-  </si>
-  <si>
     <t>data from USGS phosphate rock mineral commodity summaries</t>
   </si>
   <si>
@@ -97,9 +83,6 @@
     <t>"industry estimate" from USEPA</t>
   </si>
   <si>
-    <t>US P supplement est</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -127,17 +110,167 @@
     <t>ERS import/export data</t>
   </si>
   <si>
-    <t>phosphoric acid import</t>
-  </si>
-  <si>
-    <t>phosphoric acid prod waste</t>
+    <t>USGS Phosphate Rock Minerals Yearbook</t>
+  </si>
+  <si>
+    <t>USGS Phosphate Rock Mineral Commodity Summary</t>
+  </si>
+  <si>
+    <t>US mined P for agriculture</t>
+  </si>
+  <si>
+    <t>Imported P for agriculture</t>
+  </si>
+  <si>
+    <t>Exported P for agriculture</t>
+  </si>
+  <si>
+    <t>Export P - Import P</t>
+  </si>
+  <si>
+    <t>fattened cattle</t>
+  </si>
+  <si>
+    <t>milk cows</t>
+  </si>
+  <si>
+    <t>hogs for breeding</t>
+  </si>
+  <si>
+    <t>hogs for slaughter</t>
+  </si>
+  <si>
+    <t>chicken layers</t>
+  </si>
+  <si>
+    <t>breeding turkeys</t>
+  </si>
+  <si>
+    <t>chicken pullets</t>
+  </si>
+  <si>
+    <t>chicken broilers</t>
+  </si>
+  <si>
+    <t>slaughter turkeys</t>
+  </si>
+  <si>
+    <t>beef breeding herd</t>
+  </si>
+  <si>
+    <t>beef calves</t>
+  </si>
+  <si>
+    <t>dairy calves</t>
+  </si>
+  <si>
+    <t>beef heifers</t>
+  </si>
+  <si>
+    <t>dairy heifers</t>
+  </si>
+  <si>
+    <t>beef stockers</t>
+  </si>
+  <si>
+    <t>dairy stockers</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>horses</t>
+  </si>
+  <si>
+    <t>goats</t>
+  </si>
+  <si>
+    <t>max blood meal inclusion</t>
+  </si>
+  <si>
+    <t>cattle</t>
+  </si>
+  <si>
+    <t>dm</t>
+  </si>
+  <si>
+    <t>pigs</t>
+  </si>
+  <si>
+    <t>3-9%</t>
+  </si>
+  <si>
+    <t>broilers</t>
+  </si>
+  <si>
+    <t>layers</t>
+  </si>
+  <si>
+    <t>https://en.engormix.com/poultry-industry/articles/blood-meal-cost-saving-t36279.htm</t>
+  </si>
+  <si>
+    <t>phosphoric acid import (PAI)</t>
+  </si>
+  <si>
+    <t>phosphoric acid export (PAE)</t>
+  </si>
+  <si>
+    <t>Calculated: PAPW = PAP * 0.06</t>
+  </si>
+  <si>
+    <t>US phosphate rock mining (PRM)</t>
+  </si>
+  <si>
+    <t>phosphoric acid production (PAP)</t>
+  </si>
+  <si>
+    <t>PAP waste (PAPW)</t>
+  </si>
+  <si>
+    <t>US phosphate rock imports (PRI)</t>
+  </si>
+  <si>
+    <t>US phosphate rock exports (PRE)</t>
+  </si>
+  <si>
+    <t>proportion of phosphate rock for phosphoric acid (propPAP)</t>
+  </si>
+  <si>
+    <t>proportion of phosphorus wasted in PAP</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/radiation/tenorm-fertilizer-and-fertilizer-production-wastes</t>
+  </si>
+  <si>
+    <t>US P fertilizer imports (PFI)</t>
+  </si>
+  <si>
+    <t>US P fertilizer use (PFU)</t>
+  </si>
+  <si>
+    <t>US P fertilizer exports (PFE)</t>
+  </si>
+  <si>
+    <t>CSNAPNI estimation</t>
+  </si>
+  <si>
+    <t>Calculated: PAP = [PRM + PRI - PRE] * propPAP</t>
+  </si>
+  <si>
+    <t>Calculated: PSA = PAP - PAPW + PAI - PAE + PFI - PFE - PFU</t>
+  </si>
+  <si>
+    <t>10^9 kg P</t>
+  </si>
+  <si>
+    <t>US P supplement availability (PSA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,16 +304,64 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.5"/>
+      <color theme="10"/>
+      <name val="Times Roman"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -217,11 +398,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -246,9 +484,52 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8A3210BB-A37E-7B48-8A97-C8908B0F8BBC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -261,6 +542,1209 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>US mined P for agriculture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.4151399538106233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3709499999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4640799999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5090149999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1454499999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60A2-CD45-97AF-09B7B33E1FB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Imported P for agriculture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.23589773672055425</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36791315789473683</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4644172929292929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58918549999999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6611051612903226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-60A2-CD45-97AF-09B7B33E1FB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exported P for agriculture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.6355222632794453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2917220789473687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98099999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-60A2-CD45-97AF-09B7B33E1FB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Export P - Import P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.3996245265588909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9238089210526319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.179582707070707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90681450000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31989483870967739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-60A2-CD45-97AF-09B7B33E1FB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2123313775"/>
+        <c:axId val="2123290095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2123313775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2123290095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2123290095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Billion</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> kg P</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2123313775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4410C1E3-A109-1E44-B4EA-2400121A3C06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,18 +2044,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D236BB-28DA-684F-88B0-E0BF70014692}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="15" customWidth="1"/>
     <col min="8" max="8" width="19.83203125" customWidth="1"/>
     <col min="9" max="9" width="30.83203125" customWidth="1"/>
     <col min="11" max="11" width="14.1640625" customWidth="1"/>
@@ -580,185 +2066,185 @@
     <col min="18" max="18" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B1">
+    <row r="1" spans="1:18">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22">
         <v>1997</v>
       </c>
-      <c r="C1">
+      <c r="C2" s="23">
         <v>2002</v>
       </c>
-      <c r="D1">
+      <c r="D2" s="23">
         <v>2007</v>
       </c>
-      <c r="E1">
+      <c r="E2" s="23">
         <v>2012</v>
       </c>
-      <c r="F1">
+      <c r="F2" s="24">
         <v>2017</v>
       </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f t="shared" ref="B2:E2" si="0">J3*10^6*J8/10^9</f>
+      <c r="G2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>1997</v>
+      </c>
+      <c r="K2">
+        <v>2002</v>
+      </c>
+      <c r="L2">
+        <v>2007</v>
+      </c>
+      <c r="M2">
+        <v>2012</v>
+      </c>
+      <c r="N2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="32">
+      <c r="A3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="26">
+        <f>J3*10^6*J8/10^9</f>
         <v>6.0168221709006922</v>
       </c>
-      <c r="C2">
-        <f t="shared" si="0"/>
+      <c r="C3" s="27">
+        <f>K3*10^6*K8/10^9</f>
         <v>4.601</v>
       </c>
-      <c r="D2">
-        <f t="shared" si="0"/>
+      <c r="D3" s="27">
+        <f>L3*10^6*L8/10^9</f>
         <v>3.6463999999999999</v>
       </c>
-      <c r="E2">
-        <f t="shared" si="0"/>
+      <c r="E3" s="27">
+        <f>M3*10^6*M8/10^9</f>
         <v>3.6936999999999993</v>
       </c>
-      <c r="F2">
+      <c r="F3" s="28">
         <f>N3*10^6*N8/10^9</f>
         <v>3.3109999999999995</v>
       </c>
-      <c r="J2">
-        <v>1997</v>
-      </c>
-      <c r="K2">
-        <v>2002</v>
-      </c>
-      <c r="L2">
-        <v>2007</v>
-      </c>
-      <c r="M2">
-        <v>2012</v>
-      </c>
-      <c r="N2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:E3" si="1">J4*10^6*J8/10^9</f>
+      <c r="G3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>45900</v>
+      </c>
+      <c r="K3">
+        <v>36100</v>
+      </c>
+      <c r="L3">
+        <v>29700</v>
+      </c>
+      <c r="M3">
+        <v>30100</v>
+      </c>
+      <c r="N3">
+        <v>27900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="32">
+      <c r="A4" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="26">
+        <f>J4*10^6*J8/10^9</f>
         <v>0.23988637413394917</v>
       </c>
-      <c r="C3">
-        <f t="shared" si="1"/>
+      <c r="C4" s="27">
+        <f>K4*10^6*K8/10^9</f>
         <v>0.34411911357340724</v>
       </c>
-      <c r="D3">
-        <f t="shared" si="1"/>
+      <c r="D4" s="27">
+        <f>L4*10^6*L8/10^9</f>
         <v>0.32780767676767675</v>
       </c>
-      <c r="E3">
-        <f t="shared" si="1"/>
+      <c r="E4" s="27">
+        <f>M4*10^6*M8/10^9</f>
         <v>0.43808999999999998</v>
       </c>
-      <c r="F3">
+      <c r="F4" s="28">
         <f>N4*10^6*N8/10^9</f>
         <v>0.29905806451612904</v>
       </c>
-      <c r="I3" t="s">
+      <c r="G4" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>45900</v>
-      </c>
-      <c r="K3">
-        <v>36100</v>
-      </c>
-      <c r="L3">
-        <v>29700</v>
-      </c>
-      <c r="M3">
-        <v>30100</v>
-      </c>
-      <c r="N3">
-        <v>27900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ref="B4:E4" si="2">J5*10^6*J8/10^9</f>
+      <c r="J4">
+        <v>1830</v>
+      </c>
+      <c r="K4">
+        <v>2700</v>
+      </c>
+      <c r="L4">
+        <v>2670</v>
+      </c>
+      <c r="M4">
+        <v>3570</v>
+      </c>
+      <c r="N4">
+        <v>2520</v>
+      </c>
+      <c r="P4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>0.13</v>
+      </c>
+      <c r="R4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="32">
+      <c r="A5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="26">
+        <f>J5*10^6*J8/10^9</f>
         <v>4.3913625866050805E-2</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="2"/>
+      <c r="C5" s="27">
+        <f>K5*10^6*K8/10^9</f>
         <v>4.9706094182825492E-3</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="2"/>
+      <c r="D5" s="27">
         <v>0</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
+      <c r="E5" s="27">
+        <f>M5*10^6*M8/10^9</f>
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F5" s="28">
         <f>N5*10^6*N8/10^9</f>
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>1830</v>
-      </c>
-      <c r="K4">
-        <v>2700</v>
-      </c>
-      <c r="L4">
-        <v>2670</v>
-      </c>
-      <c r="M4">
-        <v>3570</v>
-      </c>
-      <c r="N4">
-        <v>2520</v>
-      </c>
-      <c r="P4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4">
-        <v>0.13</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.9</v>
-      </c>
-      <c r="C5">
-        <v>0.95</v>
-      </c>
-      <c r="D5">
-        <v>0.95</v>
-      </c>
-      <c r="E5">
-        <v>0.95</v>
-      </c>
-      <c r="F5">
-        <v>0.95</v>
+      <c r="G5" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>335</v>
@@ -776,32 +2262,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:18" ht="32">
+      <c r="A6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0.95</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0.95</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
         <v>3</v>
-      </c>
-      <c r="B6">
-        <f>B5*(SUM(B2:B3)-B4)</f>
-        <v>5.591515427251732</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:F6" si="3">C5*(SUM(C2:C3)-C4)</f>
-        <v>4.6931410789473693</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="3"/>
-        <v>3.7754972929292925</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="3"/>
-        <v>3.9252004999999994</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="3"/>
-        <v>3.4295551612903217</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
       </c>
       <c r="J6">
         <v>0.9</v>
@@ -819,47 +2303,58 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+    <row r="7" spans="1:18" ht="32">
+      <c r="A7" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="26">
+        <f>B6*(SUM(B3:B4)-B5)</f>
+        <v>5.591515427251732</v>
+      </c>
+      <c r="C7" s="27">
+        <f t="shared" ref="C7:F7" si="0">C6*(SUM(C3:C4)-C5)</f>
+        <v>4.6931410789473693</v>
+      </c>
+      <c r="D7" s="27">
+        <f t="shared" si="0"/>
+        <v>3.7754972929292925</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="0"/>
+        <v>3.9252004999999994</v>
+      </c>
+      <c r="F7" s="28">
+        <f t="shared" si="0"/>
+        <v>3.4295551612903217</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="32">
+      <c r="A8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="26">
+        <v>1E-3</v>
+      </c>
+      <c r="C8" s="27">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="27">
         <v>0.13400000000000001</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="C8">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="D8">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="F8">
-        <v>0.13100000000000001</v>
+      <c r="E8" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="F8" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J8">
         <f>Sheet2!B7</f>
@@ -882,182 +2377,516 @@
         <v>0.11867383512544802</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <f>$J$23*B6</f>
+    <row r="9" spans="1:18" ht="32">
+      <c r="A9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="26">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="C9" s="27">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D9" s="27">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="48">
+      <c r="A10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="26">
+        <v>0.06</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0.06</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="26">
+        <f>$J$24*B7</f>
         <v>0.32852465561674216</v>
       </c>
-      <c r="C9">
-        <f>$J$23*C6</f>
+      <c r="C11" s="27">
+        <f>$J$24*C7</f>
         <v>0.27574144733778938</v>
       </c>
-      <c r="D9">
-        <f>$J$23*D6</f>
+      <c r="D11" s="27">
+        <f>$J$24*D7</f>
         <v>0.22182607990248818</v>
       </c>
-      <c r="E9">
-        <f>$J$23*E6</f>
+      <c r="E11" s="27">
+        <f>$J$24*E7</f>
         <v>0.2306217624303282</v>
       </c>
-      <c r="F9">
-        <f>$J$23*F6</f>
+      <c r="F11" s="28">
+        <f>$J$24*F7</f>
         <v>0.2015005489907592</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <f>C10</f>
+      <c r="G11" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="32">
+      <c r="A12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="26">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C12" s="27">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="C10">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="D10">
+      <c r="D12" s="27">
         <v>1.9E-2</v>
       </c>
-      <c r="E10">
+      <c r="E12" s="27">
         <v>0.17199999999999999</v>
       </c>
-      <c r="F10">
+      <c r="F12" s="28">
         <v>0.376</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
+      <c r="G12" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="26">
         <v>1.639</v>
       </c>
-      <c r="C11">
+      <c r="C13" s="27">
         <v>1.4870000000000001</v>
       </c>
-      <c r="D11">
+      <c r="D13" s="27">
         <v>1.71</v>
       </c>
-      <c r="E11">
+      <c r="E13" s="27">
         <v>1.6879999999999999</v>
       </c>
-      <c r="F11">
+      <c r="F13" s="28">
         <v>1.6990000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
+      <c r="G13" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="32">
+      <c r="A14" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="26">
         <f>2.01+0.385+0.108</f>
         <v>2.5029999999999997</v>
       </c>
-      <c r="C12">
+      <c r="C14" s="27">
         <f>1.613+0.523+0.1</f>
         <v>2.2360000000000002</v>
       </c>
-      <c r="D12">
+      <c r="D14" s="27">
         <f>0.579+0.991</f>
         <v>1.5699999999999998</v>
       </c>
-      <c r="E12">
+      <c r="E14" s="27">
         <v>1.29</v>
       </c>
-      <c r="F12">
+      <c r="F14" s="28">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ref="B14:C14" si="4">B6-B11-B12-B8-B9+B10+B7</f>
-        <v>1.06499077163499</v>
-      </c>
-      <c r="C14">
+      <c r="G14" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="32">
+      <c r="A15" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="26">
+        <f>B7-B13-B14-B9-B11+B12+B8</f>
+        <v>1.0479907716349899</v>
+      </c>
+      <c r="C15" s="27">
+        <f>C7-C13-C14-C9-C11+C12+C8</f>
+        <v>0.68439963160957962</v>
+      </c>
+      <c r="D15" s="27">
+        <f>D7-D13-D14-D9-D11+D12+D8</f>
+        <v>0.35267121302680449</v>
+      </c>
+      <c r="E15" s="27">
+        <f>E7-E13-E14-E9-E11+E12+E8</f>
+        <v>0.68357873756967102</v>
+      </c>
+      <c r="F15" s="28">
+        <f>F7-F13-F14-F9-F11+F12+F8</f>
+        <v>0.92505461229956243</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="J16">
+        <v>5.2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="B17">
+        <v>1997</v>
+      </c>
+      <c r="C17">
+        <v>2002</v>
+      </c>
+      <c r="D17">
+        <v>2007</v>
+      </c>
+      <c r="E17">
+        <v>2012</v>
+      </c>
+      <c r="F17">
+        <v>2017</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <f>B3*B6</f>
+        <v>5.4151399538106233</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:F18" si="1">C3*C6</f>
+        <v>4.3709499999999997</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>3.4640799999999996</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>3.5090149999999993</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>3.1454499999999994</v>
+      </c>
+      <c r="J18">
+        <v>0.24</v>
+      </c>
+      <c r="K18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <f>B4*B6+B8+B12</f>
+        <v>0.23589773672055425</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:F19" si="2">C4*C6+C8+C12</f>
+        <v>0.36791315789473683</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>0.4644172929292929</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>0.58918549999999992</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0.6611051612903226</v>
+      </c>
+      <c r="J19">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <f>B5*B6+B9+B14</f>
+        <v>2.6355222632794453</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:F20" si="3">C5*C6+C9+C14</f>
+        <v>2.2917220789473687</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>1.496</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <f>B20-B19</f>
+        <v>2.3996245265588909</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:F21" si="4">C20-C19</f>
+        <v>1.9238089210526319</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="4"/>
-        <v>0.68439963160957962</v>
-      </c>
-      <c r="D14">
-        <f>D6-D11-D12-D8-D9+D10+D7</f>
-        <v>0.35267121302680449</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ref="E14:F14" si="5">E6-E11-E12-E8-E9+E10+E7</f>
-        <v>0.68257873756967102</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="5"/>
-        <v>0.92405461229956243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="J15">
-        <v>5.2</v>
-      </c>
-      <c r="K15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
+        <v>1.179582707070707</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>0.90681450000000008</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>0.31989483870967739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="I23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="J17">
-        <v>0.24</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="J23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="J18">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="K18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="J19" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I23">
-        <f>J17*J16/(J17*J16+J18*J15*J19)</f>
+    <row r="24" spans="1:13">
+      <c r="E24">
+        <f>(B18-C18)/C18</f>
+        <v>0.23889313623139677</v>
+      </c>
+      <c r="I24">
+        <f>J18*J17/(J18*J17+J19*J16*J20)</f>
         <v>0.94124586440098323</v>
       </c>
-      <c r="J23">
-        <f>J15*J18*J19/(J15*J18*J19+J17*J16)</f>
+      <c r="J24">
+        <f>J16*J19*J20/(J16*J19*J20+J18*J17)</f>
         <v>5.8754135599016717E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G10" r:id="rId1" xr:uid="{F9A822E8-BDDA-6F4A-B65B-0822650C25CA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B25EAAB-FA6C-5747-8FC5-5B7CEFA8EC9B}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="14">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1065,7 +2894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3999965D-E4C1-304B-89BB-2DD83A034E90}">
   <dimension ref="A1:R15"/>
   <sheetViews>
@@ -1073,18 +2902,18 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="B3">
         <v>1997</v>
       </c>
@@ -1137,9 +2966,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B4" s="9">
         <v>43300</v>
@@ -1193,9 +3022,9 @@
         <v>27900</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>13200</v>
@@ -1249,9 +3078,9 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <f t="shared" ref="B6:G6" si="0">B5/B4</f>
@@ -1278,153 +3107,153 @@
         <v>0.296398891966759</v>
       </c>
       <c r="H6">
-        <f>H5/H4</f>
+        <f t="shared" ref="H6:N6" si="1">H5/H4</f>
         <v>0.29428571428571426</v>
       </c>
       <c r="I6">
-        <f>I5/I4</f>
+        <f t="shared" si="1"/>
         <v>0.29050279329608941</v>
       </c>
       <c r="J6">
-        <f>J5/J4</f>
+        <f t="shared" si="1"/>
         <v>0.2853185595567867</v>
       </c>
       <c r="K6">
-        <f>K5/K4</f>
+        <f t="shared" si="1"/>
         <v>0.28837209302325584</v>
       </c>
       <c r="L6">
-        <f>L5/L4</f>
+        <f t="shared" si="1"/>
         <v>0.28552188552188551</v>
       </c>
       <c r="M6">
-        <f>M5/M4</f>
+        <f t="shared" si="1"/>
         <v>0.28538205980066444</v>
       </c>
       <c r="N6">
-        <f>N5/N4</f>
+        <f t="shared" si="1"/>
         <v>0.2862179487179487</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:R6" si="1">O5/O4</f>
+        <f t="shared" ref="O6:R6" si="2">O5/O4</f>
         <v>0.30474308300395259</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28138686131386859</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28265682656826568</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27598566308243727</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <f>B6*$B$13</f>
         <v>0.1310854503464203</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:R7" si="2">C6*$B$13</f>
+        <f t="shared" ref="C7:R7" si="3">C6*$B$13</f>
         <v>0.1254977375565611</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12497536945812807</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12476683937823833</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1244169278996865</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12745152354570638</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12654285714285712</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12491620111731845</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12268698060941828</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12400000000000001</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12277441077441077</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12271428571428571</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12307371794871794</v>
       </c>
       <c r="O7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1310395256916996</v>
       </c>
       <c r="P7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12099635036496349</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12154243542435424</v>
       </c>
       <c r="R7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11867383512544802</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="H11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" s="4"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="H12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" s="4"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0.43</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="G14" s="6"/>
       <c r="I14" s="6"/>
       <c r="K14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="G15" s="8"/>
       <c r="I15" s="8"/>
       <c r="K15" s="8"/>

--- a/RawData/Pfeedsupplementprod.xlsx
+++ b/RawData/Pfeedsupplementprod.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malgren/Documents/Mines/N_P/NANI_NAPI/CSNAPNIv1/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44E2FBC-4839-A146-A992-88AA057131E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD96DE7-6989-EE45-A1D6-C10040186C84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23900" yWindow="-22120" windowWidth="26840" windowHeight="15940" xr2:uid="{B337FA75-AAC9-E84C-8A12-4A38C0F69304}"/>
+    <workbookView xWindow="-13280" yWindow="-23760" windowWidth="26840" windowHeight="15940" xr2:uid="{B337FA75-AAC9-E84C-8A12-4A38C0F69304}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="USDA fertilizer conversion" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>US P mining</t>
   </si>
@@ -251,9 +252,6 @@
     <t>US P fertilizer exports (PFE)</t>
   </si>
   <si>
-    <t>CSNAPNI estimation</t>
-  </si>
-  <si>
     <t>Calculated: PAP = [PRM + PRI - PRE] * propPAP</t>
   </si>
   <si>
@@ -264,12 +262,27 @@
   </si>
   <si>
     <t>US P supplement availability (PSA)</t>
+  </si>
+  <si>
+    <t>USDA Fertilizer Use and Price tables (1997-2012), CSNAPNI estimation (2017)</t>
+  </si>
+  <si>
+    <t>1000 short tons P</t>
+  </si>
+  <si>
+    <t>kg/short ton</t>
+  </si>
+  <si>
+    <t>From Table 1, US consumption of plant nutrients</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="10">
     <font>
       <sz val="12"/>
@@ -459,7 +472,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -495,15 +508,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -524,6 +528,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2047,7 +2066,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B15" sqref="B15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2068,36 +2087,36 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="16"/>
-      <c r="B1" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="17"/>
       <c r="I1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19">
         <v>1997</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="20">
         <v>2002</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="20">
         <v>2007</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="20">
         <v>2012</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="21">
         <v>2017</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="22" t="s">
         <v>15</v>
       </c>
       <c r="J2">
@@ -2120,27 +2139,27 @@
       <c r="A3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="23">
         <f>J3*10^6*J8/10^9</f>
         <v>6.0168221709006922</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="24">
         <f>K3*10^6*K8/10^9</f>
         <v>4.601</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="24">
         <f>L3*10^6*L8/10^9</f>
         <v>3.6463999999999999</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="24">
         <f>M3*10^6*M8/10^9</f>
         <v>3.6936999999999993</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="25">
         <f>N3*10^6*N8/10^9</f>
         <v>3.3109999999999995</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="26" t="s">
         <v>24</v>
       </c>
       <c r="I3" t="s">
@@ -2166,27 +2185,27 @@
       <c r="A4" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="23">
         <f>J4*10^6*J8/10^9</f>
         <v>0.23988637413394917</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="24">
         <f>K4*10^6*K8/10^9</f>
         <v>0.34411911357340724</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="24">
         <f>L4*10^6*L8/10^9</f>
         <v>0.32780767676767675</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="24">
         <f>M4*10^6*M8/10^9</f>
         <v>0.43808999999999998</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="25">
         <f>N4*10^6*N8/10^9</f>
         <v>0.29905806451612904</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="26" t="s">
         <v>24</v>
       </c>
       <c r="I4" t="s">
@@ -2221,26 +2240,26 @@
       <c r="A5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="23">
         <f>J5*10^6*J8/10^9</f>
         <v>4.3913625866050805E-2</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="24">
         <f>K5*10^6*K8/10^9</f>
         <v>4.9706094182825492E-3</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="24">
         <v>0</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="24">
         <f>M5*10^6*M8/10^9</f>
         <v>0</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="25">
         <f>N5*10^6*N8/10^9</f>
         <v>0</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="26" t="s">
         <v>24</v>
       </c>
       <c r="I5" t="s">
@@ -2266,22 +2285,22 @@
       <c r="A6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="23">
         <v>0.9</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="24">
         <v>0.95</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="24">
         <v>0.95</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="24">
         <v>0.95</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="25">
         <v>0.95</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="26" t="s">
         <v>25</v>
       </c>
       <c r="I6" t="s">
@@ -2307,50 +2326,50 @@
       <c r="A7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="23">
         <f>B6*(SUM(B3:B4)-B5)</f>
         <v>5.591515427251732</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="24">
         <f t="shared" ref="C7:F7" si="0">C6*(SUM(C3:C4)-C5)</f>
         <v>4.6931410789473693</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="24">
         <f t="shared" si="0"/>
         <v>3.7754972929292925</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="24">
         <f t="shared" si="0"/>
         <v>3.9252004999999994</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="25">
         <f t="shared" si="0"/>
         <v>3.4295551612903217</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>72</v>
+      <c r="G7" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="32">
       <c r="A8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="23">
         <v>1E-3</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="24">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="24">
         <v>0.13400000000000001</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="24">
         <v>1E-3</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="25">
         <v>1E-3</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="26" t="s">
         <v>24</v>
       </c>
       <c r="I8" t="s">
@@ -2381,22 +2400,22 @@
       <c r="A9" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="23">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="24">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="24">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="24">
         <v>0.20599999999999999</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="25">
         <v>0.13100000000000001</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="26" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2404,22 +2423,22 @@
       <c r="A10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="23">
         <v>0.06</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="24">
         <v>0.06</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="24">
         <v>0.06</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="24">
         <v>0.06</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="25">
         <v>0.06</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="27" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2427,27 +2446,27 @@
       <c r="A11" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="23">
         <f>$J$24*B7</f>
         <v>0.32852465561674216</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="24">
         <f>$J$24*C7</f>
         <v>0.27574144733778938</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="24">
         <f>$J$24*D7</f>
         <v>0.22182607990248818</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="24">
         <f>$J$24*E7</f>
         <v>0.2306217624303282</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="25">
         <f>$J$24*F7</f>
         <v>0.2015005489907592</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2455,100 +2474,100 @@
       <c r="A12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="23">
         <v>1.9E-2</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="24">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="24">
         <v>1.9E-2</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="24">
         <v>0.17199999999999999</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="25">
         <v>0.376</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" ht="48">
       <c r="A13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="26">
-        <v>1.639</v>
-      </c>
-      <c r="C13" s="27">
-        <v>1.4870000000000001</v>
-      </c>
-      <c r="D13" s="27">
-        <v>1.71</v>
-      </c>
-      <c r="E13" s="27">
-        <v>1.6879999999999999</v>
-      </c>
-      <c r="F13" s="28">
+      <c r="B13" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="C13" s="24">
+        <v>1.81</v>
+      </c>
+      <c r="D13" s="24">
+        <v>1.78</v>
+      </c>
+      <c r="E13" s="24">
+        <v>1.7</v>
+      </c>
+      <c r="F13" s="25">
         <v>1.6990000000000001</v>
       </c>
-      <c r="G13" s="29" t="s">
-        <v>71</v>
+      <c r="G13" s="26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="32">
       <c r="A14" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="23">
         <f>2.01+0.385+0.108</f>
         <v>2.5029999999999997</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="24">
         <f>1.613+0.523+0.1</f>
         <v>2.2360000000000002</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="24">
         <f>0.579+0.991</f>
         <v>1.5699999999999998</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="24">
         <v>1.29</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="25">
         <v>0.85</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="32">
       <c r="A15" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="26">
+        <v>74</v>
+      </c>
+      <c r="B15" s="23">
         <f>B7-B13-B14-B9-B11+B12+B8</f>
-        <v>1.0479907716349899</v>
-      </c>
-      <c r="C15" s="27">
+        <v>0.8869907716349904</v>
+      </c>
+      <c r="C15" s="24">
         <f>C7-C13-C14-C9-C11+C12+C8</f>
-        <v>0.68439963160957962</v>
-      </c>
-      <c r="D15" s="27">
+        <v>0.36139963160957961</v>
+      </c>
+      <c r="D15" s="24">
         <f>D7-D13-D14-D9-D11+D12+D8</f>
-        <v>0.35267121302680449</v>
-      </c>
-      <c r="E15" s="27">
+        <v>0.28267121302680442</v>
+      </c>
+      <c r="E15" s="28">
         <f>E7-E13-E14-E9-E11+E12+E8</f>
-        <v>0.68357873756967102</v>
-      </c>
-      <c r="F15" s="28">
+        <v>0.67157873756967146</v>
+      </c>
+      <c r="F15" s="29">
         <f>F7-F13-F14-F9-F11+F12+F8</f>
         <v>0.92505461229956243</v>
       </c>
-      <c r="G15" s="29" t="s">
-        <v>73</v>
+      <c r="G15" s="26" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -3262,4 +3281,282 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6283D69-CF0D-244D-87FB-05CB70E76780}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="F1" s="33">
+        <v>907</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="34">
+        <v>1997</v>
+      </c>
+      <c r="B5" s="33">
+        <v>1983.0740000000001</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33">
+        <v>1.798648118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="34">
+        <v>1998</v>
+      </c>
+      <c r="B6" s="33">
+        <v>1984.5359999999998</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33">
+        <v>1.7999741519999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="34">
+        <v>1999</v>
+      </c>
+      <c r="B7" s="33">
+        <v>1829.3059999999998</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33">
+        <v>1.6591805419999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="34">
+        <v>2000</v>
+      </c>
+      <c r="B8" s="33">
+        <v>1854.934</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33">
+        <v>1.6824251380000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="34">
+        <v>2001</v>
+      </c>
+      <c r="B9" s="33">
+        <v>1830.596</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33">
+        <v>1.660350572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="34">
+        <v>2002</v>
+      </c>
+      <c r="B10" s="33">
+        <v>1990.8999999999999</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33">
+        <v>1.8057462999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="34">
+        <v>2003</v>
+      </c>
+      <c r="B11" s="33">
+        <v>1844.915</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33">
+        <v>1.6733379050000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="34">
+        <v>2004</v>
+      </c>
+      <c r="B12" s="33">
+        <v>2074.5349999999999</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33">
+        <v>1.8816032449999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="34">
+        <v>2005</v>
+      </c>
+      <c r="B13" s="33">
+        <v>1994.34</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33">
+        <v>1.80886638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="34">
+        <v>2006</v>
+      </c>
+      <c r="B14" s="33">
+        <v>1925.7980000000002</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33">
+        <v>1.7466987860000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="34">
+        <v>2007</v>
+      </c>
+      <c r="B15" s="33">
+        <v>1965.8309999999999</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33">
+        <v>1.783008717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="34">
+        <v>2008</v>
+      </c>
+      <c r="B16" s="33">
+        <v>1826.1669999999999</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33">
+        <v>1.6563334689999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="34">
+        <v>2009</v>
+      </c>
+      <c r="B17" s="33">
+        <v>1349.125</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33">
+        <v>1.223656375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="34">
+        <v>2010</v>
+      </c>
+      <c r="B18" s="33">
+        <v>1789.4019999999998</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33">
+        <v>1.6229876139999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="34">
+        <v>2011</v>
+      </c>
+      <c r="B19" s="33">
+        <v>1846.893</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33">
+        <v>1.6751319510000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="34">
+        <v>2012</v>
+      </c>
+      <c r="B20" s="33">
+        <v>1870.1990000000001</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33">
+        <v>1.6962704929999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="34">
+        <v>2013</v>
+      </c>
+      <c r="B21" s="33">
+        <v>2020.1399999999999</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33">
+        <v>1.83226698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="34">
+        <v>2014</v>
+      </c>
+      <c r="B22" s="33">
+        <v>2018.6780000000001</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33">
+        <v>1.8309409459999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="34">
+        <v>2015</v>
+      </c>
+      <c r="B23" s="33">
+        <v>1834.595</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33">
+        <v>1.663977665</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>